--- a/Data/EEG Studies.xlsx
+++ b/Data/EEG Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D334C-C313-7846-B9AA-8F538A7E8AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67719F2A-1D5D-3F45-ABE1-A957D25708FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="7020" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/EEG Studies.xlsx
+++ b/Data/EEG Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67719F2A-1D5D-3F45-ABE1-A957D25708FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7C0EE-6814-8D44-9EAC-70515F7294D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="7020" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
+    <workbookView xWindow="16920" yWindow="6940" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Summary</t>
   </si>
@@ -98,9 +98,6 @@
     <t>doi:10.18112/openneuro.ds002778.v1.0.2</t>
   </si>
   <si>
-    <t>ds002778</t>
-  </si>
-  <si>
     <t>Alexander P. Rockhill and Nicko Jackson and Jobi George and Adam Aron and Nicole C. Swann (2020). UC San Diego Resting State EEG Data from Patients with Parkinson's Disease. OpenNeuro. [Dataset] doi: 10.18112/openneuro.ds002778.v1.0.2</t>
   </si>
   <si>
@@ -153,13 +150,25 @@
   </si>
   <si>
     <t>ds004584-1.0.0</t>
+  </si>
+  <si>
+    <t>?? Very large population, might be useful for training or testing later?</t>
+  </si>
+  <si>
+    <t>https://openneuro.org/datasets/ds005385/versions/1.0.3</t>
+  </si>
+  <si>
+    <t>UCSD_Rest</t>
+  </si>
+  <si>
+    <t>ds002778-1.0.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +217,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -242,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -287,6 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E29CE29-FE06-5C4F-9389-82DC419B7105}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,13 +656,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -669,7 +685,7 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -681,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>6</v>
@@ -690,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -702,7 +718,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -714,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -723,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.2">
@@ -738,42 +754,45 @@
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="G10" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
@@ -782,16 +801,27 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -811,6 +841,7 @@
     <hyperlink ref="E9" r:id="rId11" xr:uid="{621CCE54-2263-4F4E-9BB9-A956F79B47AF}"/>
     <hyperlink ref="G9" r:id="rId12" xr:uid="{7B349179-482D-794D-972D-D691A1A4A689}"/>
     <hyperlink ref="G10" r:id="rId13" xr:uid="{0D75CC7E-D14E-A240-AD27-DA82E5FA3477}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{06D043E4-36AB-9343-B8E0-DA646A52134A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/EEG Studies.xlsx
+++ b/Data/EEG Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7C0EE-6814-8D44-9EAC-70515F7294D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FD555-95A8-1D4F-AA74-A2FD23897955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="6940" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/EEG Studies.xlsx
+++ b/Data/EEG Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FD555-95A8-1D4F-AA74-A2FD23897955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9710A0F3-A40E-0641-9BA5-225BE259598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="6940" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
+    <workbookView xWindow="23300" yWindow="6940" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,10 +299,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,7 +641,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,11 +668,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/EEG Studies.xlsx
+++ b/Data/EEG Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9710A0F3-A40E-0641-9BA5-225BE259598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768C1581-30E4-6144-B9CC-A455CA6C10FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="6940" windowWidth="32380" windowHeight="18020" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
+    <workbookView xWindow="140" yWindow="1880" windowWidth="29900" windowHeight="19940" xr2:uid="{977EEC3C-A948-C04F-B7FA-E69A2E36C13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E29CE29-FE06-5C4F-9389-82DC419B7105}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
